--- a/RQ1_Results/aggregated/valuecorrelation.xlsx
+++ b/RQ1_Results/aggregated/valuecorrelation.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,6 +796,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010093600FF255B683488FA7D78A61F6ACA2" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f3e773d715c6b3174e4c142805127174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c7f76cb1-89ee-4b57-9b7d-f2588e6f8ef3" xmlns:ns4="0e7fdb95-cc9f-47aa-82a3-a3229e5912eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a8284b1319d4c8f050bc920eb60756" ns3:_="" ns4:_="">
     <xsd:import namespace="c7f76cb1-89ee-4b57-9b7d-f2588e6f8ef3"/>
@@ -1004,22 +1019,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FD6778-C405-40BA-8CE6-6E2D6BFC385E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3AB2B4-78D6-4DE4-9CF3-707166797880}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F798B0-6C91-490F-B3A7-7F21C5075544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1036,21 +1053,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3AB2B4-78D6-4DE4-9CF3-707166797880}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FD6778-C405-40BA-8CE6-6E2D6BFC385E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RQ1_Results/aggregated/valuecorrelation.xlsx
+++ b/RQ1_Results/aggregated/valuecorrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wue-my.sharepoint.com/personal/stefan_wuersten_ch/Documents/Uni/19_HS/Masterarbeit/Repo/Evaluation/RQ1_Results/aggregated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9983E167-7F11-4047-B268-10B337E08131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{9983E167-7F11-4047-B268-10B337E08131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7710D28-D4D9-4713-B077-299FD6CD0D5E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD96CE0A-F5DA-45E7-AA01-095369E10785}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>warmupIterations</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>Auch noch mit den Standardwerten, wenn mindestens 1 Wert gesetzt wurde</t>
   </si>
+  <si>
+    <t>Unterschied</t>
+  </si>
 </sst>
 </file>
 
@@ -80,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,12 +112,142 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -469,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F20C83-FC1E-4DCF-BC96-71617F97E39F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,311 +621,490 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>-0.18</v>
+      </c>
+      <c r="D3">
+        <v>0.69</v>
+      </c>
+      <c r="E3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.03</v>
+      </c>
+      <c r="G3">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-0.11535694094266</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-0.18</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4">
-        <v>0.70267262854733403</v>
+        <v>-0.19</v>
       </c>
       <c r="E4">
-        <v>-3.0408490846097699E-2</v>
+        <v>0.81</v>
       </c>
       <c r="F4">
-        <v>-4.8533169933128997E-3</v>
+        <v>-0.3</v>
       </c>
       <c r="G4">
-        <v>-0.34422637028724501</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>-0.11535694094266</v>
-      </c>
-      <c r="D5">
-        <v>-9.3995592791261198E-2</v>
+        <v>0.69</v>
+      </c>
+      <c r="C5">
+        <v>-0.19</v>
       </c>
       <c r="E5">
-        <v>0.56954291901017096</v>
+        <v>-0.22</v>
       </c>
       <c r="F5">
-        <v>-0.11356245042748001</v>
+        <v>0.08</v>
       </c>
       <c r="G5">
-        <v>-0.56237332398912798</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.70267262854733403</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C6">
-        <v>-9.3995592791261198E-2</v>
-      </c>
-      <c r="E6">
-        <v>-1.09280369121053E-2</v>
-      </c>
+        <v>0.81</v>
+      </c>
+      <c r="D6">
+        <v>-0.22</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6">
-        <v>-2.4120062718861399E-3</v>
+        <v>-0.26</v>
       </c>
       <c r="G6">
-        <v>-0.84496235223595795</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>-3.0408490846097699E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C7">
-        <v>0.56954291901017096</v>
+        <v>-0.3</v>
       </c>
       <c r="D7">
-        <v>-1.09280369121053E-2</v>
-      </c>
-      <c r="F7">
-        <v>-8.80254161810783E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <v>-0.26</v>
       </c>
       <c r="G7">
-        <v>-0.60892986521075199</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-0.38</v>
+      </c>
+      <c r="C8">
+        <v>-0.54</v>
+      </c>
+      <c r="D8">
+        <v>-0.81</v>
+      </c>
+      <c r="E8">
+        <v>-0.6</v>
+      </c>
+      <c r="F8">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>-4.8533169933128997E-3</v>
-      </c>
-      <c r="C8">
-        <v>-0.11356245042748001</v>
-      </c>
-      <c r="D8">
-        <v>-2.4120062718861399E-3</v>
-      </c>
-      <c r="E8">
-        <v>-8.80254161810783E-2</v>
-      </c>
-      <c r="G8">
-        <v>-0.25681665762029399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>-0.34422637028724501</v>
-      </c>
-      <c r="C9">
-        <v>-0.56237332398912798</v>
-      </c>
-      <c r="D9">
-        <v>-0.84496235223595795</v>
-      </c>
-      <c r="E9">
-        <v>-0.60892986521075199</v>
-      </c>
-      <c r="F9">
-        <v>-0.25681665762029399</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-0.36</v>
+      </c>
+      <c r="D12">
+        <v>0.78</v>
+      </c>
+      <c r="E12">
+        <v>-0.38</v>
+      </c>
+      <c r="F12">
+        <v>0.53</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-0.36</v>
+      </c>
+      <c r="D13">
+        <v>-0.37</v>
+      </c>
+      <c r="E13">
+        <v>0.83</v>
+      </c>
+      <c r="F13">
+        <v>-0.24</v>
+      </c>
+      <c r="G13">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B14">
+        <v>0.78</v>
+      </c>
+      <c r="C14">
+        <v>-0.37</v>
+      </c>
+      <c r="E14">
+        <v>-0.37</v>
+      </c>
+      <c r="F14">
+        <v>0.53</v>
+      </c>
+      <c r="G14">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="B15">
+        <v>-0.38</v>
+      </c>
       <c r="C15">
-        <v>4.8533255083284002E-2</v>
+        <v>0.83</v>
       </c>
       <c r="D15">
-        <v>0.70291271794061205</v>
-      </c>
-      <c r="E15">
-        <v>2.73253655133079E-2</v>
+        <v>-0.37</v>
       </c>
       <c r="F15">
-        <v>1.6106743356682799E-3</v>
+        <v>-0.21</v>
       </c>
       <c r="G15">
-        <v>-4.3888561492798099E-3</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>4.8533255083284002E-2</v>
+        <v>0.53</v>
+      </c>
+      <c r="C16">
+        <v>-0.24</v>
       </c>
       <c r="D16">
-        <v>6.3892970600899296E-2</v>
+        <v>0.53</v>
       </c>
       <c r="E16">
-        <v>0.59922687860222201</v>
-      </c>
-      <c r="F16">
-        <v>-6.7973534278955902E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="G16">
-        <v>-7.3893365020357704E-2</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.09</v>
+      </c>
+      <c r="C17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D17">
+        <v>-0.2</v>
+      </c>
+      <c r="E17">
+        <v>-0.08</v>
+      </c>
+      <c r="F17">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>0.70291271794061205</v>
-      </c>
-      <c r="C17">
-        <v>6.3892970600899296E-2</v>
-      </c>
-      <c r="E17">
-        <v>2.0384807568735501E-2</v>
-      </c>
-      <c r="F17">
-        <v>-5.0115063711029205E-4</v>
-      </c>
-      <c r="G17">
-        <v>-8.9998022196556005E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>2.73253655133079E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.59922687860222201</v>
-      </c>
-      <c r="D18">
-        <v>2.0384807568735501E-2</v>
-      </c>
-      <c r="F18">
-        <v>-1.8345524653551801E-2</v>
-      </c>
-      <c r="G18">
-        <v>-4.36717869129567E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>1.6106743356682799E-3</v>
-      </c>
-      <c r="C19">
-        <v>-6.7973534278955902E-2</v>
-      </c>
-      <c r="D19">
-        <v>-5.0115063711029205E-4</v>
-      </c>
-      <c r="E19">
-        <v>-1.8345524653551801E-2</v>
-      </c>
-      <c r="G19">
-        <v>-2.8427960030679E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>-4.3888561492798099E-3</v>
-      </c>
-      <c r="C20">
-        <v>-7.3893365020357704E-2</v>
-      </c>
-      <c r="D20">
-        <v>-8.9998022196556005E-3</v>
-      </c>
-      <c r="E20">
-        <v>-4.36717869129567E-2</v>
-      </c>
-      <c r="F20">
-        <v>-2.8427960030679E-2</v>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:G21" si="0">C12-C3</f>
+        <v>-0.18</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:G22" si="1">B13-B4</f>
+        <v>-0.18</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-0.18</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:G23" si="2">B14-B5</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>-0.18</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:G24" si="3">B15-B6</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:G25" si="4">B16-B7</f>
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:G26" si="5">B17-B8</f>
+        <v>0.47</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>0.52</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:G9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="B18:H18 H15:H17 H19:H21">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G10 B12:G17">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+      <formula>-0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>0.1</formula>
-      <formula>0.35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:H21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B19:G19">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -796,21 +1114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010093600FF255B683488FA7D78A61F6ACA2" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f3e773d715c6b3174e4c142805127174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c7f76cb1-89ee-4b57-9b7d-f2588e6f8ef3" xmlns:ns4="0e7fdb95-cc9f-47aa-82a3-a3229e5912eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a8284b1319d4c8f050bc920eb60756" ns3:_="" ns4:_="">
     <xsd:import namespace="c7f76cb1-89ee-4b57-9b7d-f2588e6f8ef3"/>
@@ -1019,24 +1322,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FD6778-C405-40BA-8CE6-6E2D6BFC385E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3AB2B4-78D6-4DE4-9CF3-707166797880}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F798B0-6C91-490F-B3A7-7F21C5075544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1053,4 +1354,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3AB2B4-78D6-4DE4-9CF3-707166797880}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FD6778-C405-40BA-8CE6-6E2D6BFC385E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>